--- a/Data/Textbausteine_LENA_Juni2023.xlsx
+++ b/Data/Textbausteine_LENA_Juni2023.xlsx
@@ -94,7 +94,7 @@
     <t>#JaStimmenInProzent Prozent der Stimmbürgerinnen und Stimmbürger in #Gemeinde_d haben Ja gesagt zur Umsetzung der OECD-Mindeststeuer.</t>
   </si>
   <si>
-    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la modification de la réforme de l'imposition minimale de l'OCDE .</t>
+    <t>Les habitants de #Gemeinde_f acceptent avec #JaStimmenInProzent pour cent de oui la réforme de l'imposition minimale de l'OCDE .</t>
   </si>
   <si>
     <t>Con il #JaStimmenInProzent percento di "sì", i cittadini del comune di #Gemeinde_i hanno accolto l'imposizione minima OCSE/G20.</t>
@@ -703,7 +703,7 @@
     <t>HistoricPhrase_Ja_Ja_JaAnteilGestiegen</t>
   </si>
   <si>
-    <t>Im Vergleich zur Abstimmung über das CO2Gesetz vor zwei Jahren hat in #Gemeinde_d die Zustimmung noch einmal zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
+    <t>Im Vergleich zur Abstimmung über das CO2Gesetz vor rund zwei Jahren hat in #Gemeinde_d die Zustimmung noch einmal zugenommen. Damals betrug der Ja-Stimmen-Anteil #HistJaStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Le soutien à la protection du climat a augmenté à #Gemeinde_f depuis la précédente votation portant sur la loi CO2. Lors de cette votation le 13 juin 2021, il était de #HistJaStimmenInProzent pour cent.</t>
@@ -750,7 +750,7 @@
     <t>HistoricPhrase_Ja_Ja_JaAnteilUnverändert</t>
   </si>
   <si>
-    <t>Erstaunlicherweise ist damit der Ja-Anteil in #Gemeinde_d im Vergleich zur letzten Abstimmung vom 13. Juni 2021 über das CO2-Gesetz genau gleich geblieben.</t>
+    <t>Erstaunlicherweise ist damit der Ja-Anteil in #Gemeinde_d im Vergleich zur letzten umweltpolitischen Abstimmung vom 13. Juni 2021 über das CO2-Gesetz genau gleich geblieben.</t>
   </si>
   <si>
     <t>Les citoyens de #Gemeinde_f n'ont pas changé d'avis sur le climat depuis la votation sur la loi CO2 le 13 juin 2021. La part de oui reste inchangée.</t>
@@ -781,7 +781,7 @@
     <t>HistoricPhrase_Nein_Nein_NeinAnteilGesunken</t>
   </si>
   <si>
-    <t>Damit sind in #Gemeinde_d im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021  weniger Stimmberechtigte gegen ein Verbot von Tabakwerbung. Damals betrug der Nein-Stimmen-Anteil #HistNeinStimmenInProzent Prozent.</t>
+    <t>Damit hat die Ablehung in #Gemeinde_d im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021 abgenommen. Damals betrug der Nein-Stimmen-Anteil noch #HistNeinStimmenInProzent Prozent.</t>
   </si>
   <si>
     <t>Le rejet de la loi est toutefois moins fort que celui de la loi sur le CO2 le 13 juin 2021. Les habitants de #Gemeinde_f avaient alors dit non à #HistNeinStimmenInProzent pour cent.</t>
@@ -797,7 +797,7 @@
     <t>HistoricPhrase_Nein_Nein_NeinAnteilÄhnlich</t>
   </si>
   <si>
-    <t>Damit ist in #Gemeinde_d die Ablehnung im Vergleich zur letzten Abstimmung vom 13. Juni 2021 über das CO2-Gesetz ungefähr gleich geblieten.</t>
+    <t>Damit ist in #Gemeinde_d die Ablehnung im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021 ungefähr gleich geblieten.</t>
   </si>
   <si>
     <t xml:space="preserve">Le résultat a peu changé par rapport au scrutin du 13 juin 2021, lors du vote sur la loi CO2. #Gemeinde_f avait alors dit non à #HistNeinStimmenInProzent pour cent à la loi sur le climat. </t>
@@ -812,7 +812,7 @@
     <t>HistoricPhrase_Nein_Nein_NeinAnteilUnverändert</t>
   </si>
   <si>
-    <t>Erstaunlicherweise ist damit der Nein-Stimmen-Anteil in #Gemeinde_d im Vergleich zur letzten Abstimmung vom 13. Juni 2021 über das CO2-Gesetz genau gleich geblieben.</t>
+    <t>Erstaunlicherweise ist damit der Nein-Stimmen-Anteil in #Gemeinde_d im Vergleich zur letzten umweltpolitischen Abstimmung über das CO2-Gesetz vom 13. Juni 2021 genau gleich geblieben.</t>
   </si>
   <si>
     <t>Avec ce score, le résultat des urnes reste à #Gemeinde_f identique à celui du 13 juin 2021, lors du vote sur la loi CO2.</t>
@@ -1163,7 +1163,7 @@
     <t>HistoricPhrase_Ja_Nein_Nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Die beiden letzten Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte die Gemeinde noch abgelehnt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Die letzten beiden Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte die Gemeinde noch abgelehnt. </t>
   </si>
   <si>
     <t xml:space="preserve">C'est la première fois que #Gemeinde_f approuve une loi sur le Covid. Elle avait voté non lors des deux précédents scrutins sur cette question, respectivement en juin et en novembre 2021. </t>
@@ -1226,7 +1226,7 @@
     <t>HistoricPhrase_Nein_Ja_Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den beiden letzten Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den letzten beiden Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
   </si>
   <si>
     <t>#Gemeinde_f a refusé la première votation sur la loi Covid. Cette commune a ensuite accepté les deux modifications proposées.</t>
@@ -1940,19 +1940,19 @@
     <t>VD</t>
   </si>
   <si>
-    <t>Initiative populaire « Pour la protection du climat</t>
+    <t>Initiative populaire «Pour la protection du climat»</t>
   </si>
   <si>
     <t>GE</t>
   </si>
   <si>
-    <t>IN 181 initiative 1000 emplois</t>
+    <t>Initiative 1000 emplois</t>
   </si>
   <si>
-    <t>IN 184 « Pour un congé parental maintenant ! »</t>
+    <t>Initiative «Pour un congé parental maintenant!»</t>
   </si>
   <si>
-    <t>IN185 «Pour une contribution temporaire de solidarité sur les grandes fortunes »</t>
+    <t>Initiative «Pour une contribution temporaire de solidarité sur les grandes fortunes»</t>
   </si>
   <si>
     <t>Loi constitutionnelle protection dans l'espace numérique</t>
@@ -1967,7 +1967,7 @@
     <t>JU</t>
   </si>
   <si>
-    <t>Modification du 22 juin 2022 de la Constitution de la République et Canton du Jura du 20 mars 1977 (destitution de membres d'autorités)</t>
+    <t>Loi pour destituer les ministres, les autorités judiciaires et les membres des exécutifs communaux</t>
   </si>
   <si>
     <t>Variable</t>

--- a/Data/Textbausteine_LENA_Juni2023.xlsx
+++ b/Data/Textbausteine_LENA_Juni2023.xlsx
@@ -1163,7 +1163,7 @@
     <t>HistoricPhrase_Ja_Nein_Nein</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Die letzten beiden Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte die Gemeinde noch abgelehnt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Die letzten beiden Covid-19-Abstimmungen im November 2021 und im Juni 2021 hatte #Gemeinde_d noch abgelehnt. </t>
   </si>
   <si>
     <t xml:space="preserve">C'est la première fois que #Gemeinde_f approuve une loi sur le Covid. Elle avait voté non lors des deux précédents scrutins sur cette question, respectivement en juin et en novembre 2021. </t>
@@ -1226,7 +1226,7 @@
     <t>HistoricPhrase_Nein_Ja_Ja</t>
   </si>
   <si>
-    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den letzten beiden Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte die Gemeinde noch zugestimmt. </t>
+    <t xml:space="preserve">Damit hat in #Gemeinde_d ein Meinungsumschwung stattgefunden. Den letzten beiden Covid-19-Vorlagen im November 2021 und im Juni 2021 hatte #Gemeinde_d noch zugestimmt. </t>
   </si>
   <si>
     <t>#Gemeinde_f a refusé la première votation sur la loi Covid. Cette commune a ensuite accepté les deux modifications proposées.</t>
